--- a/cms-server/utils/clModel.xlsx
+++ b/cms-server/utils/clModel.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="14400"/>
+    <workbookView windowWidth="30720" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -126,6 +126,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -140,19 +164,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,107 +210,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +291,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,144 +447,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -503,9 +503,7 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -516,9 +514,7 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -551,6 +547,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -612,11 +634,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +697,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,205 +722,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -871,25 +893,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,22 +926,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1266,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12"/>
@@ -1266,7 +1294,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="20"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
@@ -1275,107 +1303,107 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" ht="31" customHeight="1" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
